--- a/biology/Microbiologie/Spirulina/Spirulina.xlsx
+++ b/biology/Microbiologie/Spirulina/Spirulina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spirulina est un genre de cyanobactéries — anciennement appelées cyanophycées ou « algues bleues » — des eaux chaudes peu profondes et saumâtres de la ceinture intertropicale. Le nom "Spirulina" vient de la forme en spirale de ces bactéries.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Une taxonomie en cours d'évolution
-La taxonomie du genre Spirulina (et du genre Arthrospira) n'est pas encore fermement établie, avec des reclassements occasionnels d'espèces dans d'autres genres. Les différences importantes en termes de morphologie et de phylogénétique entre l'espèce-type du genre Arthrospira, Arthrospira jenneri (Stizenberger ex Gomont, 1892), et les espèces économiquement exploitées sous l'appellation générique « spiruline » conduit Nowicka-Krawczyk, Mühlsteinová &amp; Hauer (2019)[1] à proposer la qualification d'un nouveau genre biologique, Limnospira, qui regrouperait différentes espèces qui se trouvent être toutes exploitées économiquement ou avoir un potentiel établi, à savoir Limnospira fusiformis comme espèce-type – l'actuelle Spirulina fusiformis (Voronichin 1934) –, Limnospira maxima – l'actuelle Arthrospira maxima (Setchell et Gardner, 1917) –, Limnospira indica – l'actuelle Arthrospira indica (Desikachary et Jeeji Bai, 1992) –, et, probablement également, Limnospira platensis – l'actuelle Arthrospira platensis.
-Liste d'espèces
-Selon AlgaeBase                                           (1 octobre 2019)[2] :
+          <t>Une taxonomie en cours d'évolution</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxonomie du genre Spirulina (et du genre Arthrospira) n'est pas encore fermement établie, avec des reclassements occasionnels d'espèces dans d'autres genres. Les différences importantes en termes de morphologie et de phylogénétique entre l'espèce-type du genre Arthrospira, Arthrospira jenneri (Stizenberger ex Gomont, 1892), et les espèces économiquement exploitées sous l'appellation générique « spiruline » conduit Nowicka-Krawczyk, Mühlsteinová &amp; Hauer (2019) à proposer la qualification d'un nouveau genre biologique, Limnospira, qui regrouperait différentes espèces qui se trouvent être toutes exploitées économiquement ou avoir un potentiel établi, à savoir Limnospira fusiformis comme espèce-type – l'actuelle Spirulina fusiformis (Voronichin 1934) –, Limnospira maxima – l'actuelle Arthrospira maxima (Setchell et Gardner, 1917) –, Limnospira indica – l'actuelle Arthrospira indica (Desikachary et Jeeji Bai, 1992) –, et, probablement également, Limnospira platensis – l'actuelle Arthrospira platensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Spirulina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spirulina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie et liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (1 octobre 2019) :
 Spirulina abbreviata, Lemmermann  		 	 	 
 Spirulina adriatica, Hansgirg
 Spirulina aeruginea, H.F.Buell  		 	 	 
@@ -577,7 +629,7 @@
 Spirulina vaginata, Rabenhorst
 Spirulina versicolor, Cohn ex Gomont
 Spirulina weissii, Drouet
-Des listes moins complètes sont compilées par ITIS      (1 octobre 2019)[3] et NCBI  (1 octobre 2019)[4].
+Des listes moins complètes sont compilées par ITIS      (1 octobre 2019) et NCBI  (1 octobre 2019).
 </t>
         </is>
       </c>
